--- a/RAFTAAR/src/test/resources/test-data/test-data.xlsx
+++ b/RAFTAAR/src/test/resources/test-data/test-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{466635D3-684D-46B0-8A45-6A9F7B8A9B50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,48 +20,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.No.</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>FirstAnswer</t>
-  </si>
-  <si>
-    <t>SecondAnswer</t>
-  </si>
-  <si>
-    <t>Qwerty@12</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>ein</t>
+  </si>
+  <si>
+    <t>employeremailid</t>
+  </si>
+  <si>
+    <t>ABC Corp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,16 +79,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,61 +363,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">CONCATENATE("Employer",RANDBETWEEN(100000,999999),"@mailinator.com")</f>
-        <v>Employer706309@mailinator.com</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>Employer475764@mailinator.com</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(100000000,999999999)</f>
+        <v>128504969</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RAFTAAR/src/test/resources/test-data/test-data.xlsx
+++ b/RAFTAAR/src/test/resources/test-data/test-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{466635D3-684D-46B0-8A45-6A9F7B8A9B50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26286372-E001-4FB4-A0F1-E2B12F1FFA69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>companyname</t>
   </si>
   <si>
@@ -46,7 +40,10 @@
     <t>employeremailid</t>
   </si>
   <si>
-    <t>ABC Corp</t>
+    <t>sic</t>
+  </si>
+  <si>
+    <t>cotto</t>
   </si>
 </sst>
 </file>
@@ -82,8 +79,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,65 +367,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f ca="1">CONCATENATE("employer.",RANDBETWEEN(100000,999999),"@mailinator.com")</f>
+        <v>employer.757392@mailinator.com</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f ca="1">CONCATENATE("Company ",RANDBETWEEN(10000,9999999))</f>
+        <v>Company 7944247</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f ca="1">CONCATENATE(CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)))</f>
+        <v>jlagt</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f ca="1">CONCATENATE(CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)))</f>
+        <v>byvcb</v>
+      </c>
+      <c r="F2" s="2">
+        <f ca="1">RANDBETWEEN(100000000,999999999)</f>
+        <v>262624848</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B6" ca="1" si="0">CONCATENATE("employer.",RANDBETWEEN(100000,999999),"@mailinator.com")</f>
+        <v>employer.415789@mailinator.com</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C6" ca="1" si="1">CONCATENATE("Company ",RANDBETWEEN(10000,9999999))</f>
+        <v>Company 4569247</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:E6" ca="1" si="2">CONCATENATE(CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)),CHAR(RANDBETWEEN(97,122)))</f>
+        <v>hahov</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>xxghm</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" ca="1" si="3">RANDBETWEEN(100000000,999999999)</f>
+        <v>436851532</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>employer.507623@mailinator.com</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Company 4118764</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ihlgu</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>igbke</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>662395080</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>employer.848225@mailinator.com</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Company 9989749</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>qedxn</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>lhvoa</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>163642030</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1">CONCATENATE("Employer",RANDBETWEEN(100000,999999),"@mailinator.com")</f>
-        <v>Employer475764@mailinator.com</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f ca="1">RANDBETWEEN(100000000,999999999)</f>
-        <v>128504969</v>
+      <c r="B6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>employer.539672@mailinator.com</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Company 3589526</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>bpglq</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>dtqfv</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>142656509</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>